--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
@@ -543,7 +543,7 @@
         <v>0.1510678514225969</v>
       </c>
       <c r="J2">
-        <v>0.151067851422597</v>
+        <v>0.1510678514225969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N2">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q2">
-        <v>0.3793830371698888</v>
+        <v>0.3514104432801111</v>
       </c>
       <c r="R2">
-        <v>3.414447334528999</v>
+        <v>3.162693989521</v>
       </c>
       <c r="S2">
-        <v>0.01074984960171808</v>
+        <v>0.01000976193933208</v>
       </c>
       <c r="T2">
-        <v>0.01074984960171808</v>
+        <v>0.01000976193933208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.1510678514225969</v>
       </c>
       <c r="J3">
-        <v>0.151067851422597</v>
+        <v>0.1510678514225969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q3">
         <v>2.246017453581</v>
@@ -632,10 +632,10 @@
         <v>20.214157082229</v>
       </c>
       <c r="S3">
-        <v>0.06364108951454693</v>
+        <v>0.06397675553429712</v>
       </c>
       <c r="T3">
-        <v>0.06364108951454693</v>
+        <v>0.06397675553429714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.1510678514225969</v>
       </c>
       <c r="J4">
-        <v>0.151067851422597</v>
+        <v>0.1510678514225969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N4">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q4">
-        <v>2.706076917293444</v>
+        <v>2.706076917293445</v>
       </c>
       <c r="R4">
-        <v>24.354692255641</v>
+        <v>24.35469225564101</v>
       </c>
       <c r="S4">
-        <v>0.07667691230633193</v>
+        <v>0.0770813339489677</v>
       </c>
       <c r="T4">
-        <v>0.07667691230633195</v>
+        <v>0.07708133394896771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8141236666666666</v>
+        <v>0.8141236666666667</v>
       </c>
       <c r="H5">
         <v>2.442371</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N5">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O5">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P5">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q5">
-        <v>2.131958943253222</v>
+        <v>1.974765774696778</v>
       </c>
       <c r="R5">
-        <v>19.18763048927899</v>
+        <v>17.772891972271</v>
       </c>
       <c r="S5">
-        <v>0.06040923223129531</v>
+        <v>0.05625027846682152</v>
       </c>
       <c r="T5">
-        <v>0.0604092322312953</v>
+        <v>0.05625027846682153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8141236666666666</v>
+        <v>0.8141236666666667</v>
       </c>
       <c r="H6">
         <v>2.442371</v>
@@ -806,10 +806,10 @@
         <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q6">
         <v>12.621589601331</v>
@@ -818,10 +818,10 @@
         <v>113.594306411979</v>
       </c>
       <c r="S6">
-        <v>0.357633780785405</v>
+        <v>0.3595200701094904</v>
       </c>
       <c r="T6">
-        <v>0.3576337807854049</v>
+        <v>0.3595200701094904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.8141236666666666</v>
+        <v>0.8141236666666667</v>
       </c>
       <c r="H7">
         <v>2.442371</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N7">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q7">
-        <v>15.20691311871011</v>
+        <v>15.20691311871012</v>
       </c>
       <c r="R7">
         <v>136.862218068391</v>
       </c>
       <c r="S7">
-        <v>0.4308891355607028</v>
+        <v>0.4331618000010911</v>
       </c>
       <c r="T7">
-        <v>0.4308891355607028</v>
+        <v>0.4331618000010911</v>
       </c>
     </row>
   </sheetData>
